--- a/Assignment_2/Employee.xlsx
+++ b/Assignment_2/Employee.xlsx
@@ -470,25 +470,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Rachel Carter</t>
+          <t>Gary Thompson PhD</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>qward@example.com</t>
+          <t>jonesmonica@example.org</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>76500</v>
+        <v>98989</v>
       </c>
     </row>
     <row r="3">
@@ -496,16 +496,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Leah Douglas</t>
+          <t>Charles Parker</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>probinson@example.net</t>
+          <t>aaronglenn@example.com</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>97064</v>
+        <v>84238</v>
       </c>
     </row>
     <row r="4">
@@ -522,25 +522,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Michael Martin</t>
+          <t>Michael Guzman</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>jamesrogers@example.com</t>
+          <t>grose@example.net</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>89571</v>
+        <v>72159</v>
       </c>
     </row>
     <row r="5">
@@ -548,16 +548,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jessica Bowen</t>
+          <t>Alex Griffith</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>aliciamurphy@example.org</t>
+          <t>gwashington@example.org</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>92041</v>
+        <v>92981</v>
       </c>
     </row>
     <row r="6">
@@ -574,25 +574,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Stefanie Carr</t>
+          <t>Stephanie Ramos</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>jennifersutton@example.net</t>
+          <t>carolyn79@example.com</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>68917</v>
+        <v>43008</v>
       </c>
     </row>
     <row r="7">
@@ -600,25 +600,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Joseph Thomas</t>
+          <t>Paul Patterson</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>wweaver@example.com</t>
+          <t>dcarpenter@example.net</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>61477</v>
+        <v>51281</v>
       </c>
     </row>
     <row r="8">
@@ -626,16 +626,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Joy Jones MD</t>
+          <t>Paul Bennett</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>jakehenry@example.net</t>
+          <t>rachelmoore@example.org</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -644,7 +644,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>91986</v>
+        <v>66116</v>
       </c>
     </row>
     <row r="9">
@@ -652,16 +652,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Mallory Wilson</t>
+          <t>Jonathan Miller</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>meyerslarry@example.org</t>
+          <t>uholt@example.net</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>97213</v>
+        <v>97549</v>
       </c>
     </row>
     <row r="10">
@@ -678,25 +678,25 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>David Henson</t>
+          <t>Linda Marks</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>zbrown@example.com</t>
+          <t>wandadavis@example.org</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>91352</v>
+        <v>92712</v>
       </c>
     </row>
     <row r="11">
@@ -704,25 +704,25 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Andrew Rodgers</t>
+          <t>Justin Williamson</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>kathleen75@example.com</t>
+          <t>austinvasquez@example.net</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>60818</v>
+        <v>96500</v>
       </c>
     </row>
     <row r="12">
@@ -730,25 +730,25 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Janice Murray</t>
+          <t>Anthony Day</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>jefferysmith@example.org</t>
+          <t>lunajames@example.com</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>49890</v>
+        <v>43473</v>
       </c>
     </row>
     <row r="13">
@@ -756,16 +756,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Matthew Rodriguez</t>
+          <t>Mark Murphy</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>franklintracy@example.org</t>
+          <t>james92@example.net</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -774,7 +774,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>83430</v>
+        <v>94149</v>
       </c>
     </row>
     <row r="14">
@@ -782,25 +782,25 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Molly Mcintosh</t>
+          <t>Amanda Young</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>sestes@example.net</t>
+          <t>dkelley@example.net</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>91925</v>
+        <v>62833</v>
       </c>
     </row>
     <row r="15">
@@ -808,16 +808,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Pamela Porter</t>
+          <t>Nathan Harrington</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>marilyn75@example.net</t>
+          <t>barbara30@example.net</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>47540</v>
+        <v>59016</v>
       </c>
     </row>
     <row r="16">
@@ -834,25 +834,25 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Robert Booth</t>
+          <t>Jeffrey Foster</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>djohnson@example.com</t>
+          <t>isabella14@example.net</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>62055</v>
+        <v>77292</v>
       </c>
     </row>
     <row r="17">
@@ -860,16 +860,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Diane Patton</t>
+          <t>Cynthia Shepherd</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>rebeccaclark@example.com</t>
+          <t>kevin76@example.org</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -878,7 +878,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>79256</v>
+        <v>61455</v>
       </c>
     </row>
     <row r="18">
@@ -886,16 +886,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Jennifer Hurley</t>
+          <t>Taylor Meyer</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>stewartsue@example.org</t>
+          <t>bshannon@example.org</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>58651</v>
+        <v>71652</v>
       </c>
     </row>
     <row r="19">
@@ -912,25 +912,25 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Susan Daniels</t>
+          <t>Dr. Adam Jackson</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>jenniferfuentes@example.com</t>
+          <t>zevans@example.com</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>66684</v>
+        <v>46551</v>
       </c>
     </row>
     <row r="20">
@@ -938,25 +938,25 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Jill Clark</t>
+          <t>Brenda Arroyo</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>paigerichardson@example.com</t>
+          <t>sarahgomez@example.org</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>46112</v>
+        <v>67555</v>
       </c>
     </row>
     <row r="21">
@@ -964,25 +964,25 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Teresa Flowers</t>
+          <t>Robert Allen</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>nicholastaylor@example.com</t>
+          <t>gregoryking@example.net</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>72878</v>
+        <v>85275</v>
       </c>
     </row>
     <row r="22">
@@ -990,16 +990,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Theresa Alvarado</t>
+          <t>Rose Gordon</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>amy58@example.net</t>
+          <t>ysandoval@example.net</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1008,7 +1008,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>59840</v>
+        <v>50158</v>
       </c>
     </row>
     <row r="23">
@@ -1020,21 +1020,21 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Haley Martin</t>
+          <t>Mallory Lane</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>deborah29@example.net</t>
+          <t>sandersdrew@example.org</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>94000</v>
+        <v>96572</v>
       </c>
     </row>
     <row r="24">
@@ -1042,16 +1042,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Joshua Allen</t>
+          <t>Hannah Andrews</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>mercedes23@example.net</t>
+          <t>morrisedward@example.com</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>52564</v>
+        <v>92560</v>
       </c>
     </row>
     <row r="25">
@@ -1068,155 +1068,155 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Ashley Craig</t>
+          <t>Dylan Rojas</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>jennifer33@example.net</t>
+          <t>kingshawn@example.net</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>81507</v>
+        <v>58583</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Gary Sanders</t>
+          <t>Jorge Dunn</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>wparker@example.org</t>
+          <t>lanecasey@example.org</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>90840</v>
+        <v>41689</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Tiffany Harmon</t>
+          <t>Michelle Davenport</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>jamie61@example.org</t>
+          <t>john68@example.net</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>72076</v>
+        <v>49578</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Darrell Allen</t>
+          <t>James White</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>archerkyle@example.net</t>
+          <t>terriberry@example.org</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>56640</v>
+        <v>53330</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Craig Taylor</t>
+          <t>Barbara Williams</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>blackburnemily@example.net</t>
+          <t>brianpope@example.org</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>98428</v>
+        <v>71922</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Heather Dunn</t>
+          <t>Michael Brown</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>ericwalton@example.com</t>
+          <t>ericmoran@example.org</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>97834</v>
+        <v>45289</v>
       </c>
     </row>
     <row r="31">
@@ -1224,25 +1224,25 @@
         <v>31</v>
       </c>
       <c r="B31" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Cassandra Fry DVM</t>
+          <t>Jerry Hansen</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>kgomez@example.net</t>
+          <t>xkelley@example.net</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>56950</v>
+        <v>66797</v>
       </c>
     </row>
     <row r="32">
@@ -1254,12 +1254,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Kimberly Peterson</t>
+          <t>Adam Smith</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>daniel21@example.org</t>
+          <t>stephen57@example.org</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1268,7 +1268,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>48794</v>
+        <v>45212</v>
       </c>
     </row>
     <row r="33">
@@ -1276,25 +1276,25 @@
         <v>33</v>
       </c>
       <c r="B33" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Jesse Cherry</t>
+          <t>Shannon Gilmore</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>bwright@example.org</t>
+          <t>hawkinsrodney@example.net</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>51876</v>
+        <v>63773</v>
       </c>
     </row>
     <row r="34">
@@ -1302,25 +1302,25 @@
         <v>34</v>
       </c>
       <c r="B34" t="n">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Jamie Walker DDS</t>
+          <t>Nathaniel Bird</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>hermanshannon@example.org</t>
+          <t>amy99@example.com</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>76666</v>
+        <v>68824</v>
       </c>
     </row>
     <row r="35">
@@ -1328,16 +1328,16 @@
         <v>35</v>
       </c>
       <c r="B35" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Brett Richards</t>
+          <t>Alexander Smith</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>marisawood@example.com</t>
+          <t>gina08@example.net</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>55520</v>
+        <v>42419</v>
       </c>
     </row>
     <row r="36">
@@ -1354,25 +1354,25 @@
         <v>36</v>
       </c>
       <c r="B36" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Victoria Hunter</t>
+          <t>Laura Taylor</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>dodsonyvette@example.com</t>
+          <t>matthewramirez@example.org</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>47983</v>
+        <v>90550</v>
       </c>
     </row>
     <row r="37">
@@ -1380,25 +1380,25 @@
         <v>37</v>
       </c>
       <c r="B37" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Michael Reed</t>
+          <t>Diane Garcia</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>qrowe@example.org</t>
+          <t>reillyandrea@example.net</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>77001</v>
+        <v>90678</v>
       </c>
     </row>
     <row r="38">
@@ -1406,25 +1406,25 @@
         <v>38</v>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Lisa Thomas</t>
+          <t>Nicholas Ellison</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>christianthompson@example.org</t>
+          <t>erussell@example.org</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>53853</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="39">
@@ -1432,25 +1432,25 @@
         <v>39</v>
       </c>
       <c r="B39" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Patricia Lewis</t>
+          <t>Cindy Obrien</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>edickson@example.net</t>
+          <t>susan44@example.com</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>71397</v>
+        <v>83251</v>
       </c>
     </row>
     <row r="40">
@@ -1458,25 +1458,25 @@
         <v>40</v>
       </c>
       <c r="B40" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Kellie Bryant</t>
+          <t>Haley Kramer</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>clowe@example.net</t>
+          <t>mfox@example.net</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>90130</v>
+        <v>98471</v>
       </c>
     </row>
     <row r="41">
@@ -1484,25 +1484,25 @@
         <v>41</v>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Andrea Pittman</t>
+          <t>Mark Rodriguez</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>khernandez@example.org</t>
+          <t>danarodgers@example.com</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>57594</v>
+        <v>94505</v>
       </c>
     </row>
     <row r="42">
@@ -1510,25 +1510,25 @@
         <v>42</v>
       </c>
       <c r="B42" t="n">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>John Phillips</t>
+          <t>Terry Baldwin MD</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>sandrataylor@example.com</t>
+          <t>leonbrianna@example.net</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>77765</v>
+        <v>91186</v>
       </c>
     </row>
     <row r="43">
@@ -1536,25 +1536,25 @@
         <v>43</v>
       </c>
       <c r="B43" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Robert Leonard</t>
+          <t>Charles Black</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>kcooper@example.net</t>
+          <t>qtaylor@example.org</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>57483</v>
+        <v>56638</v>
       </c>
     </row>
     <row r="44">
@@ -1562,25 +1562,25 @@
         <v>44</v>
       </c>
       <c r="B44" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Erika Gutierrez</t>
+          <t>Patricia White</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>townsendcristian@example.net</t>
+          <t>mckenziegrant@example.com</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>84382</v>
+        <v>53779</v>
       </c>
     </row>
     <row r="45">
@@ -1588,16 +1588,16 @@
         <v>45</v>
       </c>
       <c r="B45" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Maxwell Mosley</t>
+          <t>Emily Wright</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>lsanchez@example.net</t>
+          <t>alexandradunlap@example.com</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>99581</v>
+        <v>82531</v>
       </c>
     </row>
     <row r="46">
@@ -1614,25 +1614,25 @@
         <v>46</v>
       </c>
       <c r="B46" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Stacy Moreno</t>
+          <t>Justin Hoffman</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>carolyncardenas@example.org</t>
+          <t>reyeschristina@example.com</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>66108</v>
+        <v>59387</v>
       </c>
     </row>
     <row r="47">
@@ -1640,25 +1640,25 @@
         <v>47</v>
       </c>
       <c r="B47" t="n">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Corey Martin</t>
+          <t>Jacob Walters</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>danielwilkerson@example.com</t>
+          <t>erowe@example.org</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>53644</v>
+        <v>81725</v>
       </c>
     </row>
     <row r="48">
@@ -1666,25 +1666,25 @@
         <v>48</v>
       </c>
       <c r="B48" t="n">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Tammy Brown</t>
+          <t>Michael Thomas</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>amandasanchez@example.com</t>
+          <t>nicholas64@example.com</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>58876</v>
+        <v>75906</v>
       </c>
     </row>
     <row r="49">
@@ -1692,25 +1692,25 @@
         <v>49</v>
       </c>
       <c r="B49" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Candace Garcia</t>
+          <t>Rachel Rogers</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>charles39@example.com</t>
+          <t>stephanie82@example.org</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>91655</v>
+        <v>82861</v>
       </c>
     </row>
     <row r="50">
@@ -1718,16 +1718,16 @@
         <v>50</v>
       </c>
       <c r="B50" t="n">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Nicole Mcdonald</t>
+          <t>Ryan Knox</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>suttonkenneth@example.com</t>
+          <t>mtorres@example.com</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1736,7 +1736,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>83857</v>
+        <v>49686</v>
       </c>
     </row>
     <row r="51">
@@ -1744,25 +1744,25 @@
         <v>51</v>
       </c>
       <c r="B51" t="n">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Karen Wilkins</t>
+          <t>Caitlyn Randall</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>onelson@example.com</t>
+          <t>nelsondesiree@example.com</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>74204</v>
+        <v>57548</v>
       </c>
     </row>
     <row r="52">
@@ -1770,16 +1770,16 @@
         <v>52</v>
       </c>
       <c r="B52" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Nicholas Park</t>
+          <t>Tara Valentine</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>zsawyer@example.org</t>
+          <t>kbailey@example.net</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1788,7 +1788,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>45376</v>
+        <v>61499</v>
       </c>
     </row>
     <row r="53">
@@ -1796,25 +1796,25 @@
         <v>53</v>
       </c>
       <c r="B53" t="n">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Jeffrey Perez</t>
+          <t>Michele Jackson</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>markwalters@example.org</t>
+          <t>greenjoseph@example.org</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>76074</v>
+        <v>77191</v>
       </c>
     </row>
     <row r="54">
@@ -1822,25 +1822,25 @@
         <v>54</v>
       </c>
       <c r="B54" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Danielle Santos</t>
+          <t>Jill Mercado</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>donnabrown@example.org</t>
+          <t>richardsonwendy@example.net</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>50000</v>
+        <v>99019</v>
       </c>
     </row>
     <row r="55">
@@ -1848,16 +1848,16 @@
         <v>55</v>
       </c>
       <c r="B55" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>James Gomez</t>
+          <t>Adrian Le</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>johnsonjessica@example.net</t>
+          <t>ballterri@example.com</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1866,7 +1866,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>57459</v>
+        <v>96831</v>
       </c>
     </row>
     <row r="56">
@@ -1874,25 +1874,25 @@
         <v>56</v>
       </c>
       <c r="B56" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Jason Patel</t>
+          <t>Dennis Lee</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>hammondjo@example.net</t>
+          <t>cameronmoore@example.net</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>46122</v>
+        <v>64932</v>
       </c>
     </row>
     <row r="57">
@@ -1900,25 +1900,25 @@
         <v>57</v>
       </c>
       <c r="B57" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Bruce Allen</t>
+          <t>James Mendez</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>thomas91@example.com</t>
+          <t>heatherwilliams@example.net</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>81769</v>
+        <v>41071</v>
       </c>
     </row>
     <row r="58">
@@ -1926,25 +1926,25 @@
         <v>58</v>
       </c>
       <c r="B58" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Mr. John Wheeler DDS</t>
+          <t>Michelle Smith</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>aharris@example.net</t>
+          <t>jon29@example.com</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>99079</v>
+        <v>94006</v>
       </c>
     </row>
     <row r="59">
@@ -1952,25 +1952,25 @@
         <v>59</v>
       </c>
       <c r="B59" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Omar Jones</t>
+          <t>Rachel Bond</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>sarareed@example.net</t>
+          <t>ewalker@example.org</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>74744</v>
+        <v>56269</v>
       </c>
     </row>
     <row r="60">
@@ -1978,25 +1978,25 @@
         <v>60</v>
       </c>
       <c r="B60" t="n">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Cassandra Deleon MD</t>
+          <t>Nicholas Sherman</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>wadekristina@example.com</t>
+          <t>amanda02@example.org</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>58643</v>
+        <v>53538</v>
       </c>
     </row>
   </sheetData>
